--- a/AdditionalContent/AnwesendheitsProtokoll.xlsx
+++ b/AdditionalContent/AnwesendheitsProtokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mirror\FHWS\Semester3\SU_AlgorithmenUndDatenstrukturen2\AlgoDat2_Workspace\Infomarkt_Zyklenerkennung\AdditionalContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4217981-0C13-464C-906D-76F31158D9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B9ACC9-82A0-461A-BE40-12CAB786875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0002CBAA-50D3-4BC2-8B51-1049A6DD0A05}"/>
+    <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15840" xr2:uid="{0002CBAA-50D3-4BC2-8B51-1049A6DD0A05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Besprechungs-/Bearbeitungsprotokoll</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Vorbesprechung und nächste Schritte</t>
+  </si>
+  <si>
+    <t>verschoben</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Inhaltlicher Austausch bzgl. der anzuwendenden Algorithmen und Absprache über weiteres Vorgehen</t>
   </si>
 </sst>
 </file>
@@ -170,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,15 +189,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,7 +208,25 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -237,24 +267,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,13 +285,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE6FAF77-90A2-44CA-B214-A1725A50C8C5}" name="Tabelle3" displayName="Tabelle3" ref="A3:G7" totalsRowShown="0">
   <autoFilter ref="A3:G7" xr:uid="{C1ADE76A-D688-4CAF-817D-6E64F80AAC85}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A5EDADE6-DE8B-4624-B7E2-BCEDDC400B55}" name=" " dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{355CFA09-5374-45AA-A63F-BD727BDD0C03}" name="Klala Chikhi" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{398FA563-D7D8-4313-A598-A25E926980D4}" name="Khaled Al Souleman" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2E75DBA9-FA1A-45EE-8319-8A27134D5F16}" name="Luca Lanzo" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{9E0FD709-003D-4665-B89C-E93D75D9886F}" name="Yazan Eskief" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E5BC128E-94DA-42E8-B3EE-3C1D12D0E7B4}" name="Vincent Swigler" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{9AB41D43-DB89-4B5E-AA1C-6A30EFE8B184}" name="  " dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A5EDADE6-DE8B-4624-B7E2-BCEDDC400B55}" name=" " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{355CFA09-5374-45AA-A63F-BD727BDD0C03}" name="Klala Chikhi" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{398FA563-D7D8-4313-A598-A25E926980D4}" name="Khaled Al Souleman" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2E75DBA9-FA1A-45EE-8319-8A27134D5F16}" name="Luca Lanzo" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9E0FD709-003D-4665-B89C-E93D75D9886F}" name="Yazan Eskief" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E5BC128E-94DA-42E8-B3EE-3C1D12D0E7B4}" name="Vincent Swigler" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9AB41D43-DB89-4B5E-AA1C-6A30EFE8B184}" name="  " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -585,7 +597,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,28 +610,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -685,23 +697,47 @@
       <c r="A5" s="2">
         <v>44192</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>44196</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -712,7 +748,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -720,18 +756,18 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:F7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="v">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="v">
       <formula>NOT(ISERROR(SEARCH("v",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I4">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="v">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="v">
       <formula>NOT(ISERROR(SEARCH("v",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
